--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-46943.81224580662</v>
+        <v>-55085.62901320319</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33917475.15840613</v>
+        <v>33917475.15840612</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11023411.17494687</v>
+        <v>11023411.17494686</v>
       </c>
     </row>
     <row r="9">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>368.3379045390508</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>43.94281824961105</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T13" t="n">
-        <v>240.8720855447433</v>
+        <v>205.350451357401</v>
       </c>
       <c r="U13" t="n">
-        <v>158.072111831062</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>418.1856318563248</v>
+        <v>199.0370990897706</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>156.2922612004065</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U16" t="n">
-        <v>228.108102974198</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>82.34197378968547</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>183.6708109253913</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>76.22909826824922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2007,19 +2007,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>86.27432500780398</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144772</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2067,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>206.3994395204971</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2083,7 +2083,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>246.5143722645493</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>332.6403396138527</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2241,13 +2241,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>82.17043591154993</v>
       </c>
       <c r="D22" t="n">
-        <v>109.477682765599</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2256,10 +2256,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>390.2375931410198</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>264.5662858570319</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>107.5359725498769</v>
       </c>
       <c r="G25" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
         <v>62.46433369811443</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
-        <v>76.27908990958373</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2560,19 +2560,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>187.4450760336518</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>108.2275726589644</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2718,16 +2718,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>86.27432500780398</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>81.30766987964064</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>336.1458761677599</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>176.3796465021824</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,25 +2952,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>60.07073011995545</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>62.50002140993379</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>39.2860138983912</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>136.0829573912429</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3198,13 +3198,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
         <v>62.46433369811443</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
@@ -3249,13 +3249,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>11.04198557816876</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>117.265939345286</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>211.578103572465</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>130.0550729486532</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3429,19 +3429,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>74.42811009354939</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
@@ -3489,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>204.799567014036</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.0832236599872</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
@@ -3562,13 +3562,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>361.4649050157285</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>77.20378078338659</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3726,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>128.0685837420158</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>21.81801760674887</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>190.75753898889</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>49.34995949258614</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>49.34995949258592</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>171.946337617039</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>175.2848184896806</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>49.34995949258546</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>170.3034090720313</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1672.742527425299</v>
+        <v>77.84153564912322</v>
       </c>
       <c r="C11" t="n">
-        <v>1300.684037991915</v>
+        <v>77.84153564912322</v>
       </c>
       <c r="D11" t="n">
-        <v>878.2743088441118</v>
+        <v>77.84153564912322</v>
       </c>
       <c r="E11" t="n">
-        <v>455.8645796963089</v>
+        <v>77.84153564912322</v>
       </c>
       <c r="F11" t="n">
-        <v>33.45485054850599</v>
+        <v>77.84153564912322</v>
       </c>
       <c r="G11" t="n">
-        <v>33.45485054850599</v>
+        <v>77.84153564912322</v>
       </c>
       <c r="H11" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I11" t="n">
-        <v>83.79828774524243</v>
+        <v>83.79828774524199</v>
       </c>
       <c r="J11" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K11" t="n">
-        <v>362.9849282099031</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L11" t="n">
-        <v>570.7285396968688</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M11" t="n">
-        <v>801.8833353847205</v>
+        <v>801.8833353847202</v>
       </c>
       <c r="N11" t="n">
         <v>1036.7784573317</v>
@@ -5062,7 +5062,7 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q11" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R11" t="n">
         <v>1672.742527425299</v>
@@ -5077,16 +5077,16 @@
         <v>1672.742527425299</v>
       </c>
       <c r="V11" t="n">
-        <v>1672.742527425299</v>
+        <v>1310.125577359126</v>
       </c>
       <c r="W11" t="n">
-        <v>1672.742527425299</v>
+        <v>905.2701227701591</v>
       </c>
       <c r="X11" t="n">
-        <v>1672.742527425299</v>
+        <v>486.1276593494698</v>
       </c>
       <c r="Y11" t="n">
-        <v>1672.742527425299</v>
+        <v>77.84153564912322</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>531.967223835246</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C12" t="n">
-        <v>425.5107626718883</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D12" t="n">
-        <v>330.4204738184416</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E12" t="n">
-        <v>236.3000591453953</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F12" t="n">
-        <v>152.9162207615569</v>
+        <v>152.9162207615566</v>
       </c>
       <c r="G12" t="n">
         <v>68.24978812594551</v>
@@ -5138,10 +5138,10 @@
         <v>1270.789775072916</v>
       </c>
       <c r="P12" t="n">
-        <v>1539.100278049918</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q12" t="n">
-        <v>1629.01068086594</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R12" t="n">
         <v>1672.742527425299</v>
@@ -5150,7 +5150,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T12" t="n">
-        <v>1495.353879029497</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U12" t="n">
         <v>1319.064612101715</v>
@@ -5159,13 +5159,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W12" t="n">
-        <v>934.6243398969084</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X12" t="n">
-        <v>779.7569041357884</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y12" t="n">
-        <v>653.2711249150092</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>710.7866781387837</v>
+        <v>379.9199083360126</v>
       </c>
       <c r="C13" t="n">
-        <v>710.7866781387837</v>
+        <v>379.9199083360126</v>
       </c>
       <c r="D13" t="n">
-        <v>544.9086853403064</v>
+        <v>379.9199083360126</v>
       </c>
       <c r="E13" t="n">
-        <v>375.1506815910436</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F13" t="n">
-        <v>198.4436275527998</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G13" t="n">
         <v>33.45485054850599</v>
@@ -5199,22 +5199,22 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J13" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K13" t="n">
-        <v>505.1482476164479</v>
+        <v>418.568562451758</v>
       </c>
       <c r="L13" t="n">
-        <v>592.940721149037</v>
+        <v>832.5723379895196</v>
       </c>
       <c r="M13" t="n">
-        <v>1006.944496686799</v>
+        <v>925.1371919165364</v>
       </c>
       <c r="N13" t="n">
-        <v>1294.657997700085</v>
+        <v>1015.50106050979</v>
       </c>
       <c r="O13" t="n">
-        <v>1378.12365616191</v>
+        <v>1098.966718971616</v>
       </c>
       <c r="P13" t="n">
         <v>1449.542946114066</v>
@@ -5226,25 +5226,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S13" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T13" t="n">
-        <v>1429.437390511417</v>
+        <v>1316.576356821187</v>
       </c>
       <c r="U13" t="n">
-        <v>1269.768590682062</v>
+        <v>1316.576356821187</v>
       </c>
       <c r="V13" t="n">
-        <v>982.8130825524922</v>
+        <v>1316.576356821187</v>
       </c>
       <c r="W13" t="n">
-        <v>710.7866781387837</v>
+        <v>1044.549952407479</v>
       </c>
       <c r="X13" t="n">
-        <v>710.7866781387837</v>
+        <v>799.1581977408914</v>
       </c>
       <c r="Y13" t="n">
-        <v>710.7866781387837</v>
+        <v>571.7385270549996</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1458.555008901416</v>
+        <v>634.5570908917601</v>
       </c>
       <c r="C14" t="n">
-        <v>1036.145279753613</v>
+        <v>634.5570908917601</v>
       </c>
       <c r="D14" t="n">
-        <v>613.7355506058104</v>
+        <v>634.5570908917601</v>
       </c>
       <c r="E14" t="n">
-        <v>191.3258214580075</v>
+        <v>433.509516053608</v>
       </c>
       <c r="F14" t="n">
-        <v>191.3258214580075</v>
+        <v>433.509516053608</v>
       </c>
       <c r="G14" t="n">
         <v>33.45485054850599</v>
@@ -5275,19 +5275,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I14" t="n">
-        <v>83.7982877452425</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J14" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K14" t="n">
-        <v>362.9849282099033</v>
+        <v>362.9849282099027</v>
       </c>
       <c r="L14" t="n">
-        <v>570.728539696869</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M14" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N14" t="n">
         <v>1036.7784573317</v>
@@ -5317,13 +5317,13 @@
         <v>1458.555008901416</v>
       </c>
       <c r="W14" t="n">
-        <v>1458.555008901416</v>
+        <v>1053.699554312449</v>
       </c>
       <c r="X14" t="n">
-        <v>1458.555008901416</v>
+        <v>634.5570908917601</v>
       </c>
       <c r="Y14" t="n">
-        <v>1458.555008901416</v>
+        <v>634.5570908917601</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K15" t="n">
-        <v>588.6118936739097</v>
+        <v>605.2485493631987</v>
       </c>
       <c r="L15" t="n">
-        <v>741.5466961549138</v>
+        <v>758.1833518442028</v>
       </c>
       <c r="M15" t="n">
-        <v>920.0143971816303</v>
+        <v>936.6510528709192</v>
       </c>
       <c r="N15" t="n">
-        <v>1103.205607207306</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O15" t="n">
-        <v>1270.789775072916</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P15" t="n">
-        <v>1405.290844266289</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q15" t="n">
         <v>1511.8379027716</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>883.3483896555588</v>
+        <v>683.1470285339808</v>
       </c>
       <c r="C16" t="n">
-        <v>710.7866781387837</v>
+        <v>510.5853170172057</v>
       </c>
       <c r="D16" t="n">
-        <v>544.9086853403064</v>
+        <v>344.7073242187284</v>
       </c>
       <c r="E16" t="n">
-        <v>375.1506815910436</v>
+        <v>344.7073242187284</v>
       </c>
       <c r="F16" t="n">
-        <v>198.4436275527998</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="G16" t="n">
-        <v>33.45485054850599</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H16" t="n">
         <v>33.45485054850599</v>
@@ -5436,22 +5436,22 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J16" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K16" t="n">
-        <v>505.1482476164479</v>
+        <v>418.568562451758</v>
       </c>
       <c r="L16" t="n">
-        <v>592.940721149037</v>
+        <v>832.5723379895196</v>
       </c>
       <c r="M16" t="n">
-        <v>880.6542221623231</v>
+        <v>925.1371919165364</v>
       </c>
       <c r="N16" t="n">
-        <v>1294.657997700085</v>
+        <v>1015.50106050979</v>
       </c>
       <c r="O16" t="n">
-        <v>1378.12365616191</v>
+        <v>1098.966718971616</v>
       </c>
       <c r="P16" t="n">
         <v>1449.542946114066</v>
@@ -5463,25 +5463,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S16" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T16" t="n">
-        <v>1672.742527425299</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U16" t="n">
-        <v>1442.330302198837</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="V16" t="n">
-        <v>1155.374794069267</v>
+        <v>993.7404101185448</v>
       </c>
       <c r="W16" t="n">
-        <v>883.3483896555588</v>
+        <v>910.5666992198726</v>
       </c>
       <c r="X16" t="n">
-        <v>883.3483896555588</v>
+        <v>910.5666992198726</v>
       </c>
       <c r="Y16" t="n">
-        <v>883.3483896555588</v>
+        <v>683.1470285339808</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2024.257796809404</v>
+        <v>1060.102744102079</v>
       </c>
       <c r="C17" t="n">
-        <v>1586.115323992828</v>
+        <v>1060.102744102079</v>
       </c>
       <c r="D17" t="n">
-        <v>1150.205539167272</v>
+        <v>1060.102744102079</v>
       </c>
       <c r="E17" t="n">
-        <v>716.4307943255671</v>
+        <v>1060.102744102079</v>
       </c>
       <c r="F17" t="n">
-        <v>716.4307943255671</v>
+        <v>632.235314511287</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>232.7326231907642</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431968</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
         <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.06979815253</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447738</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447738</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2101.256885969252</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>2101.256885969252</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W17" t="n">
-        <v>2101.256885969252</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="X17" t="n">
-        <v>2101.256885969252</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="Y17" t="n">
-        <v>2024.257796809404</v>
+        <v>1486.402314586987</v>
       </c>
     </row>
     <row r="18">
@@ -5576,40 +5576,40 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.4232877204301</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
-        <v>175.3166270668973</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210676</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960901</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987875</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P18" t="n">
         <v>1488.088567599445</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1029.196554659879</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C19" t="n">
-        <v>856.6348431431041</v>
+        <v>299.093514772602</v>
       </c>
       <c r="D19" t="n">
-        <v>690.7568503446269</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="E19" t="n">
-        <v>520.9988465953642</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F19" t="n">
-        <v>344.2917925571204</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G19" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158278</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545216</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>733.4227107706874</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M19" t="n">
-        <v>1317.603786189002</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N19" t="n">
-        <v>1887.361501150537</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O19" t="n">
-        <v>2005.127382498299</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P19" t="n">
         <v>2105.896438675982</v>
       </c>
       <c r="Q19" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951973</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T19" t="n">
-        <v>2215.901038951973</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>2215.901038951973</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1928.945530822403</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W19" t="n">
-        <v>1656.919126408695</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X19" t="n">
-        <v>1448.434844064758</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y19" t="n">
-        <v>1221.015173378866</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>695.7136592983153</v>
+        <v>821.3493674098271</v>
       </c>
       <c r="C20" t="n">
-        <v>446.7092428694776</v>
+        <v>383.2068945932504</v>
       </c>
       <c r="D20" t="n">
-        <v>446.7092428694776</v>
+        <v>383.2068945932504</v>
       </c>
       <c r="E20" t="n">
-        <v>446.7092428694776</v>
+        <v>383.2068945932504</v>
       </c>
       <c r="F20" t="n">
-        <v>446.7092428694776</v>
+        <v>383.2068945932504</v>
       </c>
       <c r="G20" t="n">
         <v>47.20655154895474</v>
@@ -5749,16 +5749,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>1889.485634438363</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V20" t="n">
-        <v>1526.86868437219</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W20" t="n">
-        <v>1122.013229783223</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="X20" t="n">
-        <v>1122.013229783223</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="Y20" t="n">
-        <v>1122.013229783223</v>
+        <v>1247.648937894735</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1036.997366370204</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C22" t="n">
-        <v>864.4356548534284</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="D22" t="n">
-        <v>753.852136908379</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="E22" t="n">
-        <v>584.0941331591162</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F22" t="n">
-        <v>407.3870791208724</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895474</v>
@@ -5916,19 +5916,19 @@
         <v>477.6707703898317</v>
       </c>
       <c r="L22" t="n">
-        <v>1019.751453776091</v>
+        <v>601.5415720081296</v>
       </c>
       <c r="M22" t="n">
-        <v>1150.35584611462</v>
+        <v>1185.722647426444</v>
       </c>
       <c r="N22" t="n">
-        <v>1277.85475791851</v>
+        <v>1313.221559230334</v>
       </c>
       <c r="O22" t="n">
-        <v>1815.289888492053</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P22" t="n">
-        <v>2263.565838640079</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5943,19 +5943,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1973.653814855378</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1973.653814855378</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W22" t="n">
-        <v>1701.62741044167</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>1456.235655775082</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y22" t="n">
-        <v>1228.815985089191</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2319.861207662534</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="C23" t="n">
-        <v>1881.718734845957</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D23" t="n">
-        <v>1445.808950020402</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E23" t="n">
-        <v>1012.034205178697</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F23" t="n">
-        <v>584.1667755879048</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H23" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M23" t="n">
         <v>1131.58869045549</v>
@@ -6022,19 +6022,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>2319.861207662534</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V23" t="n">
-        <v>2319.861207662534</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W23" t="n">
-        <v>2319.861207662534</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="X23" t="n">
-        <v>2319.861207662534</v>
+        <v>1279.031102697185</v>
       </c>
       <c r="Y23" t="n">
-        <v>2319.861207662534</v>
+        <v>1279.031102697185</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>959.9477806029472</v>
+        <v>858.3289888817353</v>
       </c>
       <c r="C25" t="n">
-        <v>787.3860690861721</v>
+        <v>685.7672773649603</v>
       </c>
       <c r="D25" t="n">
-        <v>621.5080762876948</v>
+        <v>685.7672773649603</v>
       </c>
       <c r="E25" t="n">
-        <v>451.7500725384321</v>
+        <v>516.0092736156976</v>
       </c>
       <c r="F25" t="n">
-        <v>275.0430185001883</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G25" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H25" t="n">
         <v>110.3018381127067</v>
@@ -6150,22 +6150,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K25" t="n">
-        <v>320.0013704257351</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L25" t="n">
-        <v>862.082053811994</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M25" t="n">
-        <v>992.6864461505235</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N25" t="n">
-        <v>1120.185357954413</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O25" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P25" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T25" t="n">
-        <v>1973.653814855378</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U25" t="n">
-        <v>1973.653814855378</v>
+        <v>2081.94094549648</v>
       </c>
       <c r="V25" t="n">
-        <v>1896.604229088122</v>
+        <v>1794.98543736691</v>
       </c>
       <c r="W25" t="n">
-        <v>1624.577824674414</v>
+        <v>1522.959032953202</v>
       </c>
       <c r="X25" t="n">
-        <v>1379.186070007826</v>
+        <v>1277.567278286614</v>
       </c>
       <c r="Y25" t="n">
-        <v>1151.766399321934</v>
+        <v>1050.147607600722</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1346.991198798029</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="C26" t="n">
-        <v>908.8487259814518</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D26" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E26" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M26" t="n">
         <v>1131.58869045549</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V26" t="n">
-        <v>2170.989116807685</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W26" t="n">
-        <v>1766.133662218718</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X26" t="n">
-        <v>1346.991198798029</v>
+        <v>1998.769175668046</v>
       </c>
       <c r="Y26" t="n">
-        <v>1346.991198798029</v>
+        <v>1590.483051967699</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.14920158235861</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H27" t="n">
         <v>47.20655154895474</v>
@@ -6344,13 +6344,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W27" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X27" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y27" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="28">
@@ -6366,13 +6366,13 @@
         <v>299.093514772602</v>
       </c>
       <c r="D28" t="n">
-        <v>211.9477319364363</v>
+        <v>299.093514772602</v>
       </c>
       <c r="E28" t="n">
-        <v>211.9477319364363</v>
+        <v>129.3355110233392</v>
       </c>
       <c r="F28" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G28" t="n">
         <v>47.20655154895474</v>
@@ -6384,22 +6384,22 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>481.9462364092383</v>
+        <v>588.0160255186817</v>
       </c>
       <c r="M28" t="n">
-        <v>1066.127311827553</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N28" t="n">
-        <v>1635.885026789087</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P28" t="n">
         <v>2274.089213540314</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>483.1163363745102</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="C29" t="n">
-        <v>483.1163363745102</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="D29" t="n">
-        <v>47.20655154895474</v>
+        <v>1220.025276769526</v>
       </c>
       <c r="E29" t="n">
-        <v>47.20655154895474</v>
+        <v>786.2505319278209</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G29" t="n">
         <v>47.20655154895474</v>
@@ -6460,19 +6460,19 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N29" t="n">
         <v>1463.013992431967</v>
@@ -6481,7 +6481,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6496,19 +6496,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U29" t="n">
-        <v>2319.861207662534</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V29" t="n">
-        <v>2141.69994856942</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W29" t="n">
-        <v>1736.844493980454</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="X29" t="n">
-        <v>1317.702030559765</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="Y29" t="n">
-        <v>909.4159068594181</v>
+        <v>1655.935061595081</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.081764785142</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C31" t="n">
-        <v>443.520053268367</v>
+        <v>471.655226289377</v>
       </c>
       <c r="D31" t="n">
-        <v>277.6420604698897</v>
+        <v>305.7772334908997</v>
       </c>
       <c r="E31" t="n">
-        <v>107.8840567206269</v>
+        <v>305.7772334908997</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895474</v>
+        <v>305.7772334908997</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
         <v>47.20655154895474</v>
@@ -6627,19 +6627,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L31" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M31" t="n">
-        <v>970.0968922186603</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N31" t="n">
-        <v>1539.854607180195</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O31" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P31" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T31" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X31" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.9003835041292</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>86.889393870562</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="C32" t="n">
-        <v>47.20655154895473</v>
+        <v>1881.718734845957</v>
       </c>
       <c r="D32" t="n">
-        <v>47.20655154895473</v>
+        <v>1445.808950020402</v>
       </c>
       <c r="E32" t="n">
-        <v>47.20655154895473</v>
+        <v>1012.034205178697</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895473</v>
+        <v>584.1667755879048</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895473</v>
+        <v>184.664084267382</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N32" t="n">
         <v>1463.013992431967</v>
@@ -6718,7 +6718,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6730,22 +6730,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V32" t="n">
-        <v>1745.473006065472</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W32" t="n">
-        <v>1340.617551476506</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X32" t="n">
-        <v>921.4750880558164</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y32" t="n">
-        <v>513.1889643554698</v>
+        <v>2319.861207662534</v>
       </c>
     </row>
     <row r="33">
@@ -6758,22 +6758,22 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E33" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G33" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I33" t="n">
         <v>81.42328772043086</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>959.9477806029472</v>
+        <v>743.0230756686125</v>
       </c>
       <c r="C34" t="n">
-        <v>787.3860690861721</v>
+        <v>743.0230756686125</v>
       </c>
       <c r="D34" t="n">
-        <v>621.5080762876948</v>
+        <v>577.1450828701352</v>
       </c>
       <c r="E34" t="n">
-        <v>451.7500725384321</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F34" t="n">
-        <v>275.0430185001883</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G34" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H34" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>564.2504555545214</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L34" t="n">
-        <v>1106.33113894078</v>
+        <v>831.5726843696448</v>
       </c>
       <c r="M34" t="n">
-        <v>1236.93553127931</v>
+        <v>962.1770767081742</v>
       </c>
       <c r="N34" t="n">
-        <v>1364.434443083199</v>
+        <v>1531.934791669708</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527956</v>
+        <v>2069.369922243251</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T34" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U34" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V34" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W34" t="n">
-        <v>1397.158153988522</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X34" t="n">
-        <v>1151.766399321934</v>
+        <v>1162.261365073491</v>
       </c>
       <c r="Y34" t="n">
-        <v>1151.766399321934</v>
+        <v>934.8416943875995</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1355.033554032792</v>
+        <v>958.5107887296396</v>
       </c>
       <c r="C35" t="n">
-        <v>916.8910812162151</v>
+        <v>958.5107887296396</v>
       </c>
       <c r="D35" t="n">
-        <v>480.9812963906596</v>
+        <v>958.5107887296396</v>
       </c>
       <c r="E35" t="n">
-        <v>47.20655154895474</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
         <v>1463.013992431967</v>
@@ -6955,7 +6955,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U35" t="n">
-        <v>1849.01926465316</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V35" t="n">
-        <v>1486.402314586987</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="W35" t="n">
-        <v>1355.033554032792</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="X35" t="n">
-        <v>1355.033554032792</v>
+        <v>1366.796912429986</v>
       </c>
       <c r="Y35" t="n">
-        <v>1355.033554032792</v>
+        <v>958.5107887296396</v>
       </c>
     </row>
     <row r="36">
@@ -6995,22 +6995,22 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
         <v>81.42328772043086</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>471.655226289377</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C37" t="n">
-        <v>299.093514772602</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D37" t="n">
-        <v>299.093514772602</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E37" t="n">
-        <v>299.093514772602</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F37" t="n">
-        <v>122.3864607343582</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G37" t="n">
-        <v>122.3864607343582</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>688.1212571728194</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M37" t="n">
-        <v>1272.302332591134</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N37" t="n">
-        <v>1842.060047552668</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O37" t="n">
-        <v>1959.82592890043</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>1973.653814855378</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U37" t="n">
-        <v>1695.267182904121</v>
+        <v>2081.940945496479</v>
       </c>
       <c r="V37" t="n">
-        <v>1408.311674774552</v>
+        <v>1794.98543736691</v>
       </c>
       <c r="W37" t="n">
-        <v>1136.285270360843</v>
+        <v>1522.959032953201</v>
       </c>
       <c r="X37" t="n">
-        <v>890.8935156942559</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y37" t="n">
-        <v>663.4738450083642</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1624.755105488881</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C38" t="n">
-        <v>1186.612632672305</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D38" t="n">
-        <v>750.7028478467491</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E38" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F38" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G38" t="n">
         <v>316.9281030050443</v>
@@ -7171,16 +7171,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M38" t="n">
         <v>1131.58869045549</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V38" t="n">
-        <v>1889.485634438363</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W38" t="n">
-        <v>1889.485634438363</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X38" t="n">
-        <v>1889.485634438363</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="Y38" t="n">
-        <v>1889.485634438363</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="39">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>471.655226289377</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C40" t="n">
-        <v>471.655226289377</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D40" t="n">
-        <v>471.655226289377</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E40" t="n">
-        <v>301.8972225401143</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F40" t="n">
-        <v>125.1901685018705</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G40" t="n">
         <v>47.20655154895474</v>
@@ -7332,25 +7332,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>1106.33113894078</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M40" t="n">
-        <v>1236.93553127931</v>
+        <v>1160.879221014856</v>
       </c>
       <c r="N40" t="n">
-        <v>1364.434443083199</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W40" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X40" t="n">
-        <v>890.8935156942559</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y40" t="n">
-        <v>663.4738450083642</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1344.758510807007</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C41" t="n">
-        <v>1344.758510807007</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D41" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
         <v>1775.969506973259</v>
@@ -7447,16 +7447,16 @@
         <v>2148.556325916849</v>
       </c>
       <c r="V41" t="n">
-        <v>1785.939375850675</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W41" t="n">
-        <v>1763.900974227697</v>
+        <v>1743.700871327882</v>
       </c>
       <c r="X41" t="n">
-        <v>1344.758510807007</v>
+        <v>1551.016488510822</v>
       </c>
       <c r="Y41" t="n">
-        <v>1344.758510807007</v>
+        <v>1142.730364810475</v>
       </c>
     </row>
     <row r="42">
@@ -7469,7 +7469,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
         <v>341.0245550495863</v>
@@ -7481,13 +7481,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H42" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
         <v>175.316627066898</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>616.0817647851416</v>
+        <v>566.2333208532364</v>
       </c>
       <c r="C43" t="n">
-        <v>443.5200532683665</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="D43" t="n">
         <v>393.6716093364613</v>
@@ -7575,16 +7575,16 @@
         <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>326.783117436994</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M43" t="n">
-        <v>718.6204178572108</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N43" t="n">
-        <v>1288.378132818745</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O43" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P43" t="n">
         <v>2274.089213540313</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447737</v>
+        <v>2310.479133515832</v>
       </c>
       <c r="T43" t="n">
-        <v>2118.080353351143</v>
+        <v>2068.231909419238</v>
       </c>
       <c r="U43" t="n">
-        <v>1839.693721399886</v>
+        <v>1789.845277467981</v>
       </c>
       <c r="V43" t="n">
-        <v>1552.738213270316</v>
+        <v>1502.889769338411</v>
       </c>
       <c r="W43" t="n">
-        <v>1280.711808856608</v>
+        <v>1230.863364924703</v>
       </c>
       <c r="X43" t="n">
-        <v>1035.320054190021</v>
+        <v>985.4716102581153</v>
       </c>
       <c r="Y43" t="n">
-        <v>807.9003835041287</v>
+        <v>758.0519395722235</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1486.402314586987</v>
+        <v>662.40439657733</v>
       </c>
       <c r="C44" t="n">
-        <v>1048.25984177041</v>
+        <v>224.2619237607533</v>
       </c>
       <c r="D44" t="n">
-        <v>1048.25984177041</v>
+        <v>224.2619237607533</v>
       </c>
       <c r="E44" t="n">
-        <v>874.5766724602698</v>
+        <v>224.2619237607533</v>
       </c>
       <c r="F44" t="n">
-        <v>446.7092428694776</v>
+        <v>224.2619237607533</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I44" t="n">
         <v>118.4065018001353</v>
@@ -7654,28 +7654,28 @@
         <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T44" t="n">
         <v>2108.089956131646</v>
@@ -7684,16 +7684,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>1486.402314586987</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W44" t="n">
-        <v>1486.402314586987</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="X44" t="n">
-        <v>1486.402314586987</v>
+        <v>662.40439657733</v>
       </c>
       <c r="Y44" t="n">
-        <v>1486.402314586987</v>
+        <v>662.40439657733</v>
       </c>
     </row>
     <row r="45">
@@ -7709,28 +7709,28 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J45" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L45" t="n">
         <v>551.5786779960906</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.291841223631</v>
+        <v>566.2333208532364</v>
       </c>
       <c r="C46" t="n">
-        <v>919.7301297068562</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="D46" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E46" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F46" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K46" t="n">
-        <v>358.0754347909401</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>481.9462364092381</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.127311827553</v>
+        <v>1329.174074623269</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789087</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951972</v>
+        <v>2310.479133515832</v>
       </c>
       <c r="T46" t="n">
-        <v>2215.901038951972</v>
+        <v>2068.231909419238</v>
       </c>
       <c r="U46" t="n">
-        <v>2215.901038951972</v>
+        <v>1789.845277467981</v>
       </c>
       <c r="V46" t="n">
-        <v>1928.945530822402</v>
+        <v>1502.889769338411</v>
       </c>
       <c r="W46" t="n">
-        <v>1756.921885295098</v>
+        <v>1230.863364924703</v>
       </c>
       <c r="X46" t="n">
-        <v>1511.53013062851</v>
+        <v>985.4716102581153</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.110459942618</v>
+        <v>758.0519395722235</v>
       </c>
     </row>
   </sheetData>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>135.1610442258882</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>329.5063656617905</v>
       </c>
       <c r="M13" t="n">
-        <v>324.6857794047927</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>199.3430630505378</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>281.9767042326207</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>16.80470271645393</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>329.5063656617905</v>
       </c>
       <c r="M16" t="n">
-        <v>197.1198455416862</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>326.9089969136442</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>281.9767042326207</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>45.75904403825029</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371572</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>118.2717723303429</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9564,22 +9564,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>228.9222706564253</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.62967161639901</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9798,19 +9798,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>30.81754489126182</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>69.27619576520647</v>
+        <v>263.871624324937</v>
       </c>
       <c r="M28" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10050,7 +10050,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10275,16 +10275,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>152.9002451589005</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -10509,7 +10509,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10518,16 +10518,16 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>177.1920849464597</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>105.0002374943219</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>458.1582657371569</v>
+        <v>192.4544649334018</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>45.75904403825052</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>288.1634641124963</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>177.1920849464597</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11223,10 +11223,10 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>263.8716243249367</v>
+        <v>192.4544649334018</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -11235,7 +11235,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11454,22 +11454,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>69.27619576520621</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371566</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>65.42314354936008</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>13.36505512097506</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>11.25136553696291</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>5.403123438559476</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>396.054118850051</v>
       </c>
       <c r="H11" t="n">
-        <v>272.6207125031721</v>
+        <v>228.6778942535611</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>52.51403670113842</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T11" t="n">
         <v>212.0456433386444</v>
@@ -23317,16 +23317,16 @@
         <v>256.5237009191198</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H13" t="n">
         <v>133.1999654356588</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>35.52163418734233</v>
       </c>
       <c r="U13" t="n">
-        <v>117.5440240179903</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,19 +23497,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>15.57541623208607</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>13.36505512097506</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>11.25136553696291</v>
+        <v>230.3998983035172</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>239.7618576496445</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>272.6207125031721</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>52.51403670113842</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H16" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>69.83578017384922</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>47.50803287485429</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>186.9641665798859</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>83.35352501613733</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735097</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -23800,7 +23800,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>327.9741641950939</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>77.94488786268855</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>36.53839759942457</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>187.2466758238616</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -23983,7 +23983,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>62.86732479346489</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.66565849005738</v>
       </c>
       <c r="D22" t="n">
-        <v>54.74153010489354</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>31.79898163903891</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>130.9413785502857</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,16 +24262,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>67.40401094798442</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>207.8068631386901</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24448,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>171.54570453186</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>306.723466127518</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>77.94488786268855</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>93.63231361822069</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
         <v>131.0206200144773</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>87.4428791271244</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24736,19 +24736,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>182.6111340633293</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>114.8692533779059</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>100.593747173673</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>394.4750341900197</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>130.9413785502857</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>258.2641547914026</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>125.6718977746357</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,22 +25156,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>217.8588938208228</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>270.7518270944238</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>56.59250992092785</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
         <v>62.46433369811443</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>38.13827010588565</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>159.9533511200715</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>53.4861337707539</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>85.88998780022017</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>114.8692533779058</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>378.9888824363281</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>224.1934997975924</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>114.8692533779064</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>93.6323136182219</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25873,13 +25873,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>257.4906597762487</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>220.222845917637</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>93.63231361822235</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>99.00273129754012</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>334945.5052054364</v>
+        <v>334945.5052054366</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>334945.5052054365</v>
+        <v>334945.5052054364</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>423234.7070008932</v>
+        <v>423234.7070008931</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>423234.7070008932</v>
+        <v>423234.7070008931</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>423234.707000893</v>
+        <v>423234.7070008931</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>423234.7070008931</v>
+        <v>423234.707000893</v>
       </c>
     </row>
   </sheetData>
@@ -26334,13 +26334,13 @@
         <v>141567.8141707356</v>
       </c>
       <c r="I2" t="n">
-        <v>141567.8141707355</v>
+        <v>141567.8141707356</v>
       </c>
       <c r="J2" t="n">
+        <v>141567.8141707357</v>
+      </c>
+      <c r="K2" t="n">
         <v>141567.8141707356</v>
-      </c>
-      <c r="K2" t="n">
-        <v>141567.8141707357</v>
       </c>
       <c r="L2" t="n">
         <v>141567.8141707356</v>
@@ -26349,13 +26349,13 @@
         <v>141567.8141707356</v>
       </c>
       <c r="N2" t="n">
-        <v>141567.8141707356</v>
+        <v>141567.8141707357</v>
       </c>
       <c r="O2" t="n">
-        <v>141567.8141707356</v>
+        <v>141567.8141707357</v>
       </c>
       <c r="P2" t="n">
-        <v>141567.8141707356</v>
+        <v>141567.8141707357</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>390603.752983759</v>
+        <v>390603.7529837591</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>152798.4169065697</v>
+        <v>152798.4169065694</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>41367.00746823744</v>
+        <v>41367.00746823738</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,22 +26432,22 @@
         <v>18827.09897504208</v>
       </c>
       <c r="G4" t="n">
-        <v>14728.79099426159</v>
+        <v>14728.79099426161</v>
       </c>
       <c r="H4" t="n">
         <v>14728.7909942616</v>
       </c>
       <c r="I4" t="n">
-        <v>14728.7909942616</v>
+        <v>14728.79099426161</v>
       </c>
       <c r="J4" t="n">
         <v>14728.7909942616</v>
       </c>
       <c r="K4" t="n">
-        <v>14728.7909942616</v>
+        <v>14728.79099426161</v>
       </c>
       <c r="L4" t="n">
-        <v>14728.7909942616</v>
+        <v>14728.79099426161</v>
       </c>
       <c r="M4" t="n">
         <v>14728.7909942616</v>
@@ -26459,7 +26459,7 @@
         <v>14728.7909942616</v>
       </c>
       <c r="P4" t="n">
-        <v>14728.7909942616</v>
+        <v>14728.79099426159</v>
       </c>
     </row>
     <row r="5">
@@ -26484,7 +26484,7 @@
         <v>32636.50261996421</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963784</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="H5" t="n">
         <v>46051.08120963782</v>
@@ -26499,10 +26499,10 @@
         <v>46051.08120963782</v>
       </c>
       <c r="L5" t="n">
+        <v>46051.08120963782</v>
+      </c>
+      <c r="M5" t="n">
         <v>46051.08120963781</v>
-      </c>
-      <c r="M5" t="n">
-        <v>46051.08120963782</v>
       </c>
       <c r="N5" t="n">
         <v>46051.08120963782</v>
@@ -26511,7 +26511,7 @@
         <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-332516.2265475323</v>
+        <v>-333247.9774693071</v>
       </c>
       <c r="F6" t="n">
-        <v>58087.52643622674</v>
+        <v>57355.77551445201</v>
       </c>
       <c r="G6" t="n">
-        <v>-72010.47493973351</v>
+        <v>-72564.35538295509</v>
       </c>
       <c r="H6" t="n">
-        <v>80787.94196683618</v>
+        <v>80234.0615236142</v>
       </c>
       <c r="I6" t="n">
-        <v>80787.94196683611</v>
+        <v>80234.06152361423</v>
       </c>
       <c r="J6" t="n">
-        <v>80787.9419668362</v>
+        <v>80234.06152361433</v>
       </c>
       <c r="K6" t="n">
-        <v>80787.94196683624</v>
+        <v>80234.0615236142</v>
       </c>
       <c r="L6" t="n">
-        <v>80787.94196683621</v>
+        <v>80234.0615236142</v>
       </c>
       <c r="M6" t="n">
-        <v>-23425.5902342874</v>
+        <v>-23979.47067750933</v>
       </c>
       <c r="N6" t="n">
-        <v>80787.9419668362</v>
+        <v>80234.06152361431</v>
       </c>
       <c r="O6" t="n">
-        <v>39420.93449859875</v>
+        <v>38867.05405537693</v>
       </c>
       <c r="P6" t="n">
-        <v>80787.94196683615</v>
+        <v>80234.06152361432</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="F3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932214</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="J3" t="n">
         <v>466.7019280932212</v>
@@ -26779,7 +26779,7 @@
         <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
     </row>
     <row r="4">
@@ -26804,7 +26804,7 @@
         <v>418.1856318563248</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619345</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
         <v>590.0818943619342</v>
@@ -26819,10 +26819,10 @@
         <v>590.0818943619342</v>
       </c>
       <c r="L4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="M4" t="n">
         <v>590.0818943619341</v>
-      </c>
-      <c r="M4" t="n">
-        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
         <v>590.0818943619342</v>
@@ -26831,7 +26831,7 @@
         <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.9305426299343</v>
+        <v>135.930542629934</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>171.8962625056096</v>
+        <v>171.8962625056094</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>418.185631856325</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>171.8962625056095</v>
+        <v>171.8962625056093</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>171.8962625056096</v>
+        <v>171.8962625056094</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I11" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J11" t="n">
         <v>112.8595291536268</v>
@@ -31767,13 +31767,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L11" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M11" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N11" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O11" t="n">
         <v>224.0452553667434</v>
@@ -31785,13 +31785,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R11" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S11" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T11" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U11" t="n">
         <v>0.1063787370334189</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H12" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I12" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J12" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K12" t="n">
         <v>114.8868877226589</v>
@@ -31861,10 +31861,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R12" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S12" t="n">
         <v>13.21525299468887</v>
@@ -31873,7 +31873,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H13" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I13" t="n">
         <v>17.9375695592222</v>
@@ -31922,25 +31922,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K13" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L13" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M13" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N13" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O13" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P13" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R13" t="n">
         <v>26.81959463117078</v>
@@ -31952,7 +31952,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I14" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J14" t="n">
         <v>112.8595291536268</v>
@@ -32004,13 +32004,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L14" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M14" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N14" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O14" t="n">
         <v>224.0452553667434</v>
@@ -32022,13 +32022,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R14" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S14" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T14" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U14" t="n">
         <v>0.1063787370334189</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H15" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I15" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J15" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K15" t="n">
         <v>114.8868877226589</v>
@@ -32098,10 +32098,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R15" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S15" t="n">
         <v>13.21525299468887</v>
@@ -32110,7 +32110,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H16" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I16" t="n">
         <v>17.9375695592222</v>
@@ -32159,25 +32159,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K16" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L16" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M16" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N16" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O16" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P16" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R16" t="n">
         <v>26.81959463117078</v>
@@ -32189,7 +32189,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.87618865565114</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699064</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548413</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184537</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879472</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065039</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112869</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1500950924520912</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879941</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562344</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233627</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600663</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0660427256735691</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238418</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.48253255205198</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624561</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116997</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207643</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701869</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130052</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32484,7 +32484,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
@@ -32499,10 +32499,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,10 +32545,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -32557,7 +32557,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -32575,16 +32575,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H22" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
@@ -32651,10 +32651,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417549</v>
@@ -32663,7 +32663,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32800,25 +32800,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -32943,7 +32943,7 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699081</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
@@ -33970,7 +33970,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -34365,28 +34365,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -34398,7 +34398,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,13 +34441,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I45" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -34459,25 +34459,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U45" t="n">
         <v>0.06604272567356906</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
@@ -34529,7 +34529,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34553,10 +34553,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U46" t="n">
         <v>0.04590510768130049</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J11" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K11" t="n">
-        <v>169.1471783864345</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L11" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M11" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N11" t="n">
         <v>237.2677999464443</v>
       </c>
       <c r="O11" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P11" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q11" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R11" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O12" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P12" t="n">
-        <v>271.0207100777807</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.818588703052</v>
+        <v>107.6232914195059</v>
       </c>
       <c r="R12" t="n">
-        <v>44.17358238319139</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K13" t="n">
         <v>346.8331089915197</v>
       </c>
       <c r="L13" t="n">
-        <v>88.67926619453442</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="M13" t="n">
-        <v>418.1856318563248</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N13" t="n">
-        <v>290.6196979932183</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O13" t="n">
-        <v>84.30874592103578</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P13" t="n">
-        <v>72.14069692136991</v>
+        <v>354.1174011539906</v>
       </c>
       <c r="Q13" t="n">
-        <v>219.8381709871103</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R13" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J14" t="n">
         <v>112.8595291536268</v>
@@ -35652,22 +35652,22 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L14" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M14" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N14" t="n">
         <v>237.2677999464441</v>
       </c>
       <c r="O14" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P14" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q14" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R14" t="n">
         <v>83.52891675219394</v>
@@ -35728,7 +35728,7 @@
         <v>395.0550542837863</v>
       </c>
       <c r="K15" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391124</v>
       </c>
       <c r="L15" t="n">
         <v>154.4795984656607</v>
@@ -35740,16 +35740,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O15" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P15" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q15" t="n">
-        <v>107.6232914195059</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R15" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K16" t="n">
         <v>346.8331089915197</v>
       </c>
       <c r="L16" t="n">
-        <v>88.67926619453442</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="M16" t="n">
-        <v>290.6196979932183</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N16" t="n">
-        <v>418.1856318563248</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O16" t="n">
         <v>84.30874592103601</v>
       </c>
       <c r="P16" t="n">
-        <v>72.14069692136991</v>
+        <v>354.1174011539906</v>
       </c>
       <c r="Q16" t="n">
         <v>219.8381709871101</v>
       </c>
       <c r="R16" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,28 +35880,28 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785924</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.658232706284</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916701</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562344</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415862</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
         <v>217.9630089646691</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572666</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
-        <v>170.881065874915</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619345</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954892</v>
+        <v>247.0585519302313</v>
       </c>
       <c r="O19" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027017</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.658232706284</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36141,7 +36141,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
         <v>117.855135640546</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>547.5562458447063</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247774</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561045</v>
+        <v>347.8777063612351</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485105</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>81.10166275847541</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,19 +36354,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916785</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K25" t="n">
-        <v>128.5954242524317</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247772</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N25" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P25" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36591,25 +36591,25 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785941</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062841</v>
       </c>
       <c r="L26" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
         <v>269.7982739184536</v>
@@ -36676,10 +36676,10 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
-        <v>194.3982176018711</v>
+        <v>388.9936461616016</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
         <v>70.4719911420766</v>
@@ -36834,7 +36834,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
         <v>296.0766412766674</v>
@@ -36849,13 +36849,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36995,22 +36995,22 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
-        <v>284.8238737836778</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
-        <v>118.9554357048098</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P31" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37086,7 +37086,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -37229,25 +37229,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M34" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O34" t="n">
-        <v>296.1475206512696</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485103</v>
+        <v>206.7871629263254</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37323,7 +37323,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619341</v>
+        <v>324.378093558179</v>
       </c>
       <c r="N37" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>147.5459694702538</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37545,13 +37545,13 @@
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
@@ -37563,7 +37563,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
         <v>117.855135640546</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>420.0870927372735</v>
       </c>
       <c r="N40" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>296.1475206512696</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37779,7 +37779,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
@@ -37788,13 +37788,13 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
         <v>269.7982739184536</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -37943,19 +37943,19 @@
         <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M43" t="n">
-        <v>395.7952529497139</v>
+        <v>324.378093558179</v>
       </c>
       <c r="N43" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
         <v>70.4719911420766</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
@@ -38022,7 +38022,7 @@
         <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38040,7 +38040,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916794</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>167.0540751263761</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N46" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P46" t="n">
         <v>101.7869254320035</v>
